--- a/Api/data.xlsx
+++ b/Api/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>bi bi-skype</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Webinars</t>
+  </si>
+  <si>
+    <t>bi bi-zoom</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +497,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
